--- a/Ax1/A2/External Files/A21.xlsx
+++ b/Ax1/A2/External Files/A21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Algonquin Winter 2023\Compilers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Algonquin Winter 2023\Compilers\GitHub\CST8152-Compilers\Ax1\A2\External Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E9FA9-6271-4E77-BEFC-AE2BC995525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C33E45E-71E6-4AED-BF39-66A1C101C5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C20439A-3EC2-481F-93D4-66B45F49EFEF}"/>
+    <workbookView xWindow="5445" yWindow="0" windowWidth="15045" windowHeight="10920" xr2:uid="{3C20439A-3EC2-481F-93D4-66B45F49EFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>Input</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>ASNR = Accepting (Final) State (With) No Retract</t>
+  </si>
+  <si>
+    <t>OTH</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -489,104 +492,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,752 +1005,803 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="1" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="17">
         <v>3</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="17">
         <v>6</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="17">
         <v>7</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="17">
         <v>8</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="21">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="35">
+        <v>10</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="L3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="25" t="s">
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="20" t="s">
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="20" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="20" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="20" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="20" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="20" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="20" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="20" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="21" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B13:K13"/>
@@ -1659,9 +1809,11 @@
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
